--- a/Groups.xlsx
+++ b/Groups.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -27,6 +27,24 @@
   </si>
   <si>
     <t>Вакансия</t>
+  </si>
+  <si>
+    <t>Баян Е. В.</t>
+  </si>
+  <si>
+    <t>Б8419а</t>
+  </si>
+  <si>
+    <t>Менеджер по маркетингу и рекламе</t>
+  </si>
+  <si>
+    <t>Безгодов М. В.</t>
+  </si>
+  <si>
+    <t>Болотин С. Е.</t>
+  </si>
+  <si>
+    <t>Борисов Д. А.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +403,62 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Groups.xlsx
+++ b/Groups.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>№</t>
   </si>
@@ -27,6 +27,21 @@
   </si>
   <si>
     <t>Вакансия</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>Программист</t>
+  </si>
+  <si>
+    <t>петров петр петрович</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +400,84 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>8119</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>8219</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>8219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8219</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
